--- a/biology/Médecine/Alain_Delabos/Alain_Delabos.xlsx
+++ b/biology/Médecine/Alain_Delabos/Alain_Delabos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alain Delabos[1] est un médecin nutritionniste français, né en 1942, connu pour être le père de la chrononutrition.
-Cette méthode pour perdre du poids, également appelée « régime Delabos »[2] ou « régime chrono-nutrition » est basée sur les biorythmes du corps humain. Elle fut élaborée en collaboration avec le professeur Jean-Robert Rapin[3].
-Alain Delabos est directeur général de l'IREN[4] (Institut de recherche européen sur la nutrition), il est également enseignant à la faculté de pharmacie de Dijon.
-Alain Delabos est l'auteur de plusieurs livres parmi lesquels Mincir sur mesure grâce à la chrono-nutrition[5], Mincir en beauté là où vous voulez grâce à la Morpho-nutrition, Le régime starter[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alain Delabos est un médecin nutritionniste français, né en 1942, connu pour être le père de la chrononutrition.
+Cette méthode pour perdre du poids, également appelée « régime Delabos » ou « régime chrono-nutrition » est basée sur les biorythmes du corps humain. Elle fut élaborée en collaboration avec le professeur Jean-Robert Rapin.
+Alain Delabos est directeur général de l'IREN (Institut de recherche européen sur la nutrition), il est également enseignant à la faculté de pharmacie de Dijon.
+Alain Delabos est l'auteur de plusieurs livres parmi lesquels Mincir sur mesure grâce à la chrono-nutrition, Mincir en beauté là où vous voulez grâce à la Morpho-nutrition, Le régime starter.
 </t>
         </is>
       </c>
